--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2">
         <v>16</v>
@@ -1387,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="2025-1_GestaoResultado_ResumoIn" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -1205,16 +1205,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -1364,13 +1364,13 @@
         <v>39</v>
       </c>
       <c r="F15" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1387,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F16" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -1127,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1387,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -1387,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1439,16 +1439,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1387,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -558,7 +558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>3</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>3</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -844,16 +844,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>19</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>36</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>10</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -844,7 +844,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>3</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>2</x:v>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -532,7 +532,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>3</x:v>
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>5</x:v>
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>3</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>19</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -532,16 +532,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -561,13 +561,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -584,7 +584,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>3</x:v>
@@ -610,16 +610,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -636,16 +636,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
         <x:v>4</x:v>
@@ -714,7 +714,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>3</x:v>
@@ -795,13 +795,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -847,13 +847,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>19</x:v>
@@ -896,16 +896,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -922,7 +922,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>2</x:v>
@@ -948,16 +948,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
+++ b/dados/2025-1_GestaoResultado_ResumoInscricoes_SUB.xlsx
@@ -636,7 +636,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
         <x:v>14</x:v>
@@ -688,7 +688,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
         <x:v>5</x:v>
@@ -870,7 +870,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
         <x:v>19</x:v>
@@ -896,7 +896,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>42</x:v>
@@ -948,7 +948,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>11</x:v>
